--- a/results/coverage.xlsx
+++ b/results/coverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mgr\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324FF84E-31ED-4FE5-967B-B44018610884}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BF43C4-F5A8-4C45-9218-4F4EC48BB0C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{859A7628-28EB-436A-B193-1F1A980E5209}"/>
   </bookViews>
@@ -1091,9 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC39E259-D0D5-4E2B-AF3C-88B9BC881D2A}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1811,7 +1809,7 @@
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{brfalse} &amp; \Circle</v>
+        <v>\texttt{brfalse} &amp; \CIRCLE</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1819,7 +1817,7 @@
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{stloc.s} &amp; \CIRCLE &amp; \texttt{brfalse} &amp; \Circle &amp; \texttt{rem.un} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{stloc.s} &amp; \CIRCLE &amp; \texttt{brfalse} &amp; \CIRCLE &amp; \texttt{rem.un} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,7 +1847,7 @@
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{brtrue} &amp; \Circle</v>
+        <v>\texttt{brtrue} &amp; \CIRCLE</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1857,7 +1855,7 @@
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldnull} &amp; \Circle &amp; \texttt{brtrue} &amp; \Circle &amp; \texttt{and} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldnull} &amp; \Circle &amp; \texttt{brtrue} &amp; \CIRCLE &amp; \texttt{and} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,7 +1882,7 @@
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{beq} &amp; \Circle</v>
+        <v>\texttt{beq} &amp; \CIRCLE</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1892,7 +1890,7 @@
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.m1} &amp; \CIRCLE &amp; \texttt{beq} &amp; \Circle &amp; \texttt{or} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.m1} &amp; \CIRCLE &amp; \texttt{beq} &amp; \CIRCLE &amp; \texttt{or} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1919,7 +1917,7 @@
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{bge} &amp; \Circle</v>
+        <v>\texttt{bge} &amp; \CIRCLE</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1927,7 +1925,7 @@
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.0} &amp; \CIRCLE &amp; \texttt{bge} &amp; \Circle &amp; \texttt{xor} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.0} &amp; \CIRCLE &amp; \texttt{bge} &amp; \CIRCLE &amp; \texttt{xor} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1954,7 +1952,7 @@
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{bgt} &amp; \Circle</v>
+        <v>\texttt{bgt} &amp; \CIRCLE</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1962,7 +1960,7 @@
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.1} &amp; \CIRCLE &amp; \texttt{bgt} &amp; \Circle &amp; \texttt{shl} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.1} &amp; \CIRCLE &amp; \texttt{bgt} &amp; \CIRCLE &amp; \texttt{shl} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1987,7 @@
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{ble} &amp; \Circle</v>
+        <v>\texttt{ble} &amp; \CIRCLE</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1997,7 +1995,7 @@
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.2} &amp; \CIRCLE &amp; \texttt{ble} &amp; \Circle &amp; \texttt{shr} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.2} &amp; \CIRCLE &amp; \texttt{ble} &amp; \CIRCLE &amp; \texttt{shr} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2024,7 +2022,7 @@
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{blt} &amp; \Circle</v>
+        <v>\texttt{blt} &amp; \CIRCLE</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2032,7 +2030,7 @@
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.3} &amp; \CIRCLE &amp; \texttt{blt} &amp; \Circle &amp; \texttt{shr.un} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.3} &amp; \CIRCLE &amp; \texttt{blt} &amp; \CIRCLE &amp; \texttt{shr.un} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,7 +2057,7 @@
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{bne.un} &amp; \Circle</v>
+        <v>\texttt{bne.un} &amp; \CIRCLE</v>
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2067,7 +2065,7 @@
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.4} &amp; \CIRCLE &amp; \texttt{bne.un} &amp; \Circle &amp; \texttt{neg} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.4} &amp; \CIRCLE &amp; \texttt{bne.un} &amp; \CIRCLE &amp; \texttt{neg} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,7 +2092,7 @@
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{bge.un} &amp; \Circle</v>
+        <v>\texttt{bge.un} &amp; \CIRCLE</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2102,7 +2100,7 @@
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.5} &amp; \CIRCLE &amp; \texttt{bge.un} &amp; \Circle &amp; \texttt{not} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{ldc.i4.5} &amp; \CIRCLE &amp; \texttt{bge.un} &amp; \CIRCLE &amp; \texttt{not} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,7 +2127,7 @@
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{bgt.un} &amp; \Circle</v>
+        <v>\texttt{bgt.un} &amp; \CIRCLE</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2137,7 +2135,7 @@
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.6} &amp; \CIRCLE &amp; \texttt{bgt.un} &amp; \Circle &amp; \texttt{conv.i1} &amp; \LEFTcircle \\ \hline</v>
+        <v>\texttt{ldc.i4.6} &amp; \CIRCLE &amp; \texttt{bgt.un} &amp; \CIRCLE &amp; \texttt{conv.i1} &amp; \LEFTcircle \\ \hline</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2162,7 @@
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{ble.un} &amp; \Circle</v>
+        <v>\texttt{ble.un} &amp; \CIRCLE</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2172,7 +2170,7 @@
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.7} &amp; \CIRCLE &amp; \texttt{ble.un} &amp; \Circle &amp; \texttt{conv.i2} &amp; \LEFTcircle \\ \hline</v>
+        <v>\texttt{ldc.i4.7} &amp; \CIRCLE &amp; \texttt{ble.un} &amp; \CIRCLE &amp; \texttt{conv.i2} &amp; \LEFTcircle \\ \hline</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2197,7 @@
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>\texttt{blt.un} &amp; \Circle</v>
+        <v>\texttt{blt.un} &amp; \CIRCLE</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2207,7 +2205,7 @@
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ldc.i4.8} &amp; \CIRCLE &amp; \texttt{blt.un} &amp; \Circle &amp; \texttt{conv.i4} &amp; \LEFTcircle \\ \hline</v>
+        <v>\texttt{ldc.i4.8} &amp; \CIRCLE &amp; \texttt{blt.un} &amp; \CIRCLE &amp; \texttt{conv.i4} &amp; \LEFTcircle \\ \hline</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +3097,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3110,11 +3108,11 @@
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{brfalse} &amp; \Circle</v>
+        <v>\texttt{brfalse} &amp; \CIRCLE</v>
       </c>
       <c r="H57" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3126,7 +3124,7 @@
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{brfalse} &amp; \Circle &amp; \texttt{rem.un} &amp; \CIRCLE &amp; \texttt{conv.ovf.i8.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{brfalse} &amp; \CIRCLE &amp; \texttt{rem.un} &amp; \CIRCLE &amp; \texttt{conv.ovf.i8.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,7 +3135,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3148,11 +3146,11 @@
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{brtrue} &amp; \Circle</v>
+        <v>\texttt{brtrue} &amp; \CIRCLE</v>
       </c>
       <c r="H58" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3164,7 +3162,7 @@
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{brtrue} &amp; \Circle &amp; \texttt{and} &amp; \CIRCLE &amp; \texttt{conv.ovf.u1.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{brtrue} &amp; \CIRCLE &amp; \texttt{and} &amp; \CIRCLE &amp; \texttt{conv.ovf.u1.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,7 +3173,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3186,11 +3184,11 @@
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{beq} &amp; \Circle</v>
+        <v>\texttt{beq} &amp; \CIRCLE</v>
       </c>
       <c r="H59" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3202,7 +3200,7 @@
       </c>
       <c r="K59" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{beq} &amp; \Circle &amp; \texttt{or} &amp; \CIRCLE &amp; \texttt{conv.ovf.u2.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{beq} &amp; \CIRCLE &amp; \texttt{or} &amp; \CIRCLE &amp; \texttt{conv.ovf.u2.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,7 +3211,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3224,11 +3222,11 @@
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{bge} &amp; \Circle</v>
+        <v>\texttt{bge} &amp; \CIRCLE</v>
       </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3240,7 +3238,7 @@
       </c>
       <c r="K60" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{bge} &amp; \Circle &amp; \texttt{xor} &amp; \CIRCLE &amp; \texttt{conv.ovf.u4.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{bge} &amp; \CIRCLE &amp; \texttt{xor} &amp; \CIRCLE &amp; \texttt{conv.ovf.u4.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,7 +3249,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3262,11 +3260,11 @@
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{bgt} &amp; \Circle</v>
+        <v>\texttt{bgt} &amp; \CIRCLE</v>
       </c>
       <c r="H61" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3278,7 +3276,7 @@
       </c>
       <c r="K61" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{bgt} &amp; \Circle &amp; \texttt{shl} &amp; \CIRCLE &amp; \texttt{conv.ovf.u8.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{bgt} &amp; \CIRCLE &amp; \texttt{shl} &amp; \CIRCLE &amp; \texttt{conv.ovf.u8.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,7 +3287,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3300,11 +3298,11 @@
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{ble} &amp; \Circle</v>
+        <v>\texttt{ble} &amp; \CIRCLE</v>
       </c>
       <c r="H62" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3316,7 +3314,7 @@
       </c>
       <c r="K62" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{ble} &amp; \Circle &amp; \texttt{shr} &amp; \CIRCLE &amp; \texttt{conv.ovf.i.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{ble} &amp; \CIRCLE &amp; \texttt{shr} &amp; \CIRCLE &amp; \texttt{conv.ovf.i.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3327,7 +3325,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3338,11 +3336,11 @@
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{blt} &amp; \Circle</v>
+        <v>\texttt{blt} &amp; \CIRCLE</v>
       </c>
       <c r="H63" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3354,7 +3352,7 @@
       </c>
       <c r="K63" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{blt} &amp; \Circle &amp; \texttt{shr.un} &amp; \CIRCLE &amp; \texttt{conv.ovf.u.un} &amp; \Circle \\ \hline</v>
+        <v>\texttt{blt} &amp; \CIRCLE &amp; \texttt{shr.un} &amp; \CIRCLE &amp; \texttt{conv.ovf.u.un} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3365,7 +3363,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3376,11 +3374,11 @@
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{bne.un} &amp; \Circle</v>
+        <v>\texttt{bne.un} &amp; \CIRCLE</v>
       </c>
       <c r="H64" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3392,7 +3390,7 @@
       </c>
       <c r="K64" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{bne.un} &amp; \Circle &amp; \texttt{neg} &amp; \CIRCLE &amp; \texttt{box} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{bne.un} &amp; \CIRCLE &amp; \texttt{neg} &amp; \CIRCLE &amp; \texttt{box} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3403,7 +3401,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3414,11 +3412,11 @@
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>\texttt{bge.un} &amp; \Circle</v>
+        <v>\texttt{bge.un} &amp; \CIRCLE</v>
       </c>
       <c r="H65" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3430,7 +3428,7 @@
       </c>
       <c r="K65" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>\texttt{bge.un} &amp; \Circle &amp; \texttt{not} &amp; \CIRCLE &amp; \texttt{newarr} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{bge.un} &amp; \CIRCLE &amp; \texttt{not} &amp; \CIRCLE &amp; \texttt{newarr} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,7 +3439,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" ref="D66:D129" si="6">IF(C66&lt;100, IF(E66="TAK","","TAK"), "")</f>
@@ -3452,11 +3450,11 @@
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" ref="F66:F129" si="7">IF(C66=100,"\CIRCLE",IF(C66=0,"\Circle","\LEFTcircle"))</f>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" ref="G66:G129" si="8">_xlfn.CONCAT("\texttt{",B66,"} &amp; ", F66)</f>
-        <v>\texttt{bgt.un} &amp; \Circle</v>
+        <v>\texttt{bgt.un} &amp; \CIRCLE</v>
       </c>
       <c r="H66" s="2" t="str">
         <f t="shared" ref="H66:H129" si="9">IF(G103=""," &amp; ",G103)</f>
@@ -3468,7 +3466,7 @@
       </c>
       <c r="K66" s="1" t="str">
         <f t="shared" ref="K66:K129" si="11">_xlfn.CONCAT(G66," &amp; ",H66," &amp; ",I66," \\ \hline")</f>
-        <v>\texttt{bgt.un} &amp; \Circle &amp; \texttt{conv.i1} &amp; \LEFTcircle &amp; \texttt{ldlen} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{bgt.un} &amp; \CIRCLE &amp; \texttt{conv.i1} &amp; \LEFTcircle &amp; \texttt{ldlen} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3479,7 +3477,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3490,11 +3488,11 @@
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>\texttt{ble.un} &amp; \Circle</v>
+        <v>\texttt{ble.un} &amp; \CIRCLE</v>
       </c>
       <c r="H67" s="2" t="str">
         <f t="shared" si="9"/>
@@ -3506,7 +3504,7 @@
       </c>
       <c r="K67" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>\texttt{ble.un} &amp; \Circle &amp; \texttt{conv.i2} &amp; \LEFTcircle &amp; \texttt{ldelema} &amp; \Circle \\ \hline</v>
+        <v>\texttt{ble.un} &amp; \CIRCLE &amp; \texttt{conv.i2} &amp; \LEFTcircle &amp; \texttt{ldelema} &amp; \Circle \\ \hline</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3517,7 +3515,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3528,11 +3526,11 @@
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>\Circle</v>
+        <v>\CIRCLE</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>\texttt{blt.un} &amp; \Circle</v>
+        <v>\texttt{blt.un} &amp; \CIRCLE</v>
       </c>
       <c r="H68" s="2" t="str">
         <f t="shared" si="9"/>
@@ -3544,7 +3542,7 @@
       </c>
       <c r="K68" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>\texttt{blt.un} &amp; \Circle &amp; \texttt{conv.i4} &amp; \LEFTcircle &amp; \texttt{ldelem.i1} &amp; \CIRCLE \\ \hline</v>
+        <v>\texttt{blt.un} &amp; \CIRCLE &amp; \texttt{conv.i4} &amp; \LEFTcircle &amp; \texttt{ldelem.i1} &amp; \CIRCLE \\ \hline</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6589,11 +6587,11 @@
       </c>
       <c r="I151" s="2">
         <f t="shared" si="16"/>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K151" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>\texttt{ldelem.r8} &amp; \CIRCLE &amp; \texttt{leave} &amp; \Circle &amp; 101 \\ \hline</v>
+        <v>\texttt{ldelem.r8} &amp; \CIRCLE &amp; \texttt{leave} &amp; \Circle &amp; 113 \\ \hline</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,11 +6622,11 @@
       </c>
       <c r="I152" s="2">
         <f t="shared" si="16"/>
-        <v>0.46118721461187212</v>
+        <v>0.51598173515981738</v>
       </c>
       <c r="K152" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>\texttt{ldelem.ref} &amp; \CIRCLE &amp; \texttt{leave.s} &amp; \Circle &amp; 0,461187214611872 \\ \hline</v>
+        <v>\texttt{ldelem.ref} &amp; \CIRCLE &amp; \texttt{leave.s} &amp; \Circle &amp; 0,515981735159817 \\ \hline</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7958,7 +7956,7 @@
       </c>
       <c r="H188" s="2">
         <f t="shared" si="15"/>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I188" s="2" t="str">
         <f t="shared" si="16"/>
@@ -7966,7 +7964,7 @@
       </c>
       <c r="K188" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>\texttt{leave} &amp; \Circle &amp; 101 &amp;  &amp;  \\ \hline</v>
+        <v>\texttt{leave} &amp; \Circle &amp; 113 &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7996,7 +7994,7 @@
       </c>
       <c r="H189" s="2">
         <f t="shared" si="15"/>
-        <v>0.46118721461187212</v>
+        <v>0.51598173515981738</v>
       </c>
       <c r="I189" s="2" t="str">
         <f t="shared" si="16"/>
@@ -8004,7 +8002,7 @@
       </c>
       <c r="K189" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>\texttt{leave.s} &amp; \Circle &amp; 0,461187214611872 &amp;  &amp;  \\ \hline</v>
+        <v>\texttt{leave.s} &amp; \Circle &amp; 0,515981735159817 &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9163,7 +9161,7 @@
       </c>
       <c r="G225" s="3">
         <f>COUNTIF($C:$C,"=100")</f>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H225" s="3">
         <f>COUNTIF($C:$C,"=75")</f>
@@ -9179,7 +9177,7 @@
       </c>
       <c r="K225" s="3">
         <f>COUNTIF($C:$C,"=0")</f>
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="226" spans="4:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,7 +9187,7 @@
       </c>
       <c r="G226" s="5">
         <f>G225/219</f>
-        <v>0.46118721461187212</v>
+        <v>0.51598173515981738</v>
       </c>
       <c r="H226" s="5">
         <f t="shared" ref="H226:K226" si="24">H225/219</f>
@@ -9205,7 +9203,7 @@
       </c>
       <c r="K226" s="5">
         <f t="shared" si="24"/>
-        <v>0.46118721461187212</v>
+        <v>0.40639269406392692</v>
       </c>
     </row>
   </sheetData>
